--- a/PPA2/ProjectValCSVs/PPA_test_project_urbancore_01072020_1527EXCEL.xlsx
+++ b/PPA2/ProjectValCSVs/PPA_test_project_urbancore_01072020_1527EXCEL.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\ProjectLevelPerformanceAssessment\PPAv2\PPA2_0_code\PPA2\ProjectValCSVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{918F920A-4EF5-4E4E-8544-EFB2C0672C85}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A505B54-5FDD-4B3D-8BA3-4B756D76AD87}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PPA_test_project_urbancore_0107" sheetId="1" r:id="rId1"/>
+    <sheet name="import" sheetId="1" r:id="rId1"/>
+    <sheet name="charts_pg1" sheetId="2" r:id="rId2"/>
+    <sheet name="charts_pg2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>projval_2016</t>
   </si>
@@ -317,15 +327,24 @@
   </si>
   <si>
     <t>PCT_FATAL_COLLISNS</t>
+  </si>
+  <si>
+    <t>Test text description about first chart on page</t>
+  </si>
+  <si>
+    <t>Test text description about second chart on page</t>
+  </si>
+  <si>
+    <t>This is test text description of chart on the next page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -810,7 +829,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -952,7 +971,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>PPA_test_project_urbancore_0107!$A$64</c:f>
+              <c:f>import!$A$64</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1030,7 +1049,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>PPA_test_project_urbancore_0107!$B$1:$C$1</c:f>
+              <c:f>import!$B$1:$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1044,7 +1063,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PPA_test_project_urbancore_0107!$B$64:$C$64</c:f>
+              <c:f>import!$B$64:$C$64</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1059,7 +1078,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6581-4304-8C2A-E1EA085DEDE2}"/>
+              <c16:uniqueId val="{00000000-9F54-419B-8634-D1132434B76C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1068,7 +1087,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>PPA_test_project_urbancore_0107!$A$65</c:f>
+              <c:f>import!$A$65</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1146,7 +1165,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>PPA_test_project_urbancore_0107!$B$1:$C$1</c:f>
+              <c:f>import!$B$1:$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1160,7 +1179,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PPA_test_project_urbancore_0107!$B$65:$C$65</c:f>
+              <c:f>import!$B$65:$C$65</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1175,7 +1194,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6581-4304-8C2A-E1EA085DEDE2}"/>
+              <c16:uniqueId val="{00000001-9F54-419B-8634-D1132434B76C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1463,7 +1482,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>PPA_test_project_urbancore_0107!$A$26</c:f>
+              <c:f>import!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1541,7 +1560,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(PPA_test_project_urbancore_0107!$B$1,PPA_test_project_urbancore_0107!$D$1,PPA_test_project_urbancore_0107!$E$1)</c:f>
+              <c:f>(import!$B$1,import!$D$1,import!$E$1)</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1558,7 +1577,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(PPA_test_project_urbancore_0107!$B$26,PPA_test_project_urbancore_0107!$D$26:$E$26)</c:f>
+              <c:f>(import!$B$26,import!$D$26:$E$26)</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1576,7 +1595,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4427-4865-8794-39743B110A96}"/>
+              <c16:uniqueId val="{00000000-501A-4240-B0F9-6CFF2713F7EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1585,7 +1604,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>PPA_test_project_urbancore_0107!$A$27</c:f>
+              <c:f>import!$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1663,7 +1682,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(PPA_test_project_urbancore_0107!$B$1,PPA_test_project_urbancore_0107!$D$1,PPA_test_project_urbancore_0107!$E$1)</c:f>
+              <c:f>(import!$B$1,import!$D$1,import!$E$1)</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1680,7 +1699,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(PPA_test_project_urbancore_0107!$B$27,PPA_test_project_urbancore_0107!$D$27:$E$27)</c:f>
+              <c:f>(import!$B$27,import!$D$27:$E$27)</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1698,7 +1717,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4427-4865-8794-39743B110A96}"/>
+              <c16:uniqueId val="{00000001-501A-4240-B0F9-6CFF2713F7EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1989,6 +2008,440 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>import!$A$8:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>WALKDESTSalljob</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BIKEDESTSalljob</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUTODESTSalljob</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TRANDESTSalljob</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>import!$B$8:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>92854.563555555505</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>207146.58451851801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>757689.54114814801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>191657.224259259</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EC7B-41CC-A7EF-8C9DE440D9AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>import!$A$8:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>WALKDESTSalljob</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BIKEDESTSalljob</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUTODESTSalljob</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TRANDESTSalljob</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>import!$D$8:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>64913.702561223799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>213458.712808663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>775596.88072927902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>163632.287794987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EC7B-41CC-A7EF-8C9DE440D9AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>import!$A$8:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>WALKDESTSalljob</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BIKEDESTSalljob</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUTODESTSalljob</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TRANDESTSalljob</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>import!$E$8:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3842.4108777193601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37354.023709342597</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>475047.24569611403</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22213.193547074599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EC7B-41CC-A7EF-8C9DE440D9AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="413144992"/>
+        <c:axId val="476843424"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="413144992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="476843424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="476843424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413144992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2069,6 +2522,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3075,31 +3568,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62C8E4D1-9982-47DC-A015-A1AF06C394FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{343BD12B-DE6F-47F0-A746-2254B00691E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3115,23 +4113,66 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0FF28F1-AE34-4D90-A479-282943EE761C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A537D093-D18C-43CF-B421-A427C24DE4E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6176CED4-3ECC-4946-824D-6589E3699B19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3143,7 +4184,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3448,11 +4489,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4475,6 +5516,54 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECCAFD4-91AA-4A54-9D7E-20D5302EC54C}">
+  <dimension ref="B4:B22"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6214DCB8-A904-4048-8891-634DB5071E9F}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>